--- a/data/materials.xlsx
+++ b/data/materials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Store\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5806AB0-86B6-47AB-880B-2B90981B3C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADD8DA9-E8B1-4798-8571-C1968C97E07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
   <si>
     <t>Item</t>
   </si>
@@ -874,6 +874,51 @@
   </si>
   <si>
     <t>Gas 19 Kg</t>
+  </si>
+  <si>
+    <t>Junnu</t>
+  </si>
+  <si>
+    <t>Dmart Material</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>30 KL water</t>
+  </si>
+  <si>
+    <t>5 KL Water</t>
+  </si>
+  <si>
+    <t>10 KL Water</t>
+  </si>
+  <si>
+    <t>Onion_Potato_Ginger_Garlic</t>
+  </si>
+  <si>
+    <t>Icecreams</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Groceries</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Arif Materials</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>Parcel &amp; House keeping</t>
+  </si>
+  <si>
+    <t>Maintainance &amp; Repair</t>
   </si>
 </sst>
 </file>
@@ -940,7 +985,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -976,11 +1021,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1014,6 +1070,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1502,13 +1559,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A280"/>
+  <dimension ref="A1:A295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B276" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2916,8 +2973,83 @@
         <v>279</v>
       </c>
     </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.39305555555555599" bottom="0.156944444444444" header="0.23611111111111099" footer="7.8472222222222193E-2"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/materials.xlsx
+++ b/data/materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADD8DA9-E8B1-4798-8571-C1968C97E07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707E09D0-E454-4BD9-B0D9-C6A666674AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t>Item</t>
   </si>
@@ -919,6 +919,45 @@
   </si>
   <si>
     <t>Maintainance &amp; Repair</t>
+  </si>
+  <si>
+    <t>HRT Roll(Tissue roll)</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Electric Material</t>
+  </si>
+  <si>
+    <t>Plumbing Material</t>
+  </si>
+  <si>
+    <t>Hardware material</t>
+  </si>
+  <si>
+    <t>Kitchenware</t>
+  </si>
+  <si>
+    <t>CP Pomegranate</t>
+  </si>
+  <si>
+    <t>CP Watermelone</t>
+  </si>
+  <si>
+    <t>CP Pineapple</t>
+  </si>
+  <si>
+    <t>CP Blackcane</t>
+  </si>
+  <si>
+    <t>CP Classic Cane</t>
+  </si>
+  <si>
+    <t>CP ABC</t>
+  </si>
+  <si>
+    <t>Incense Stick (Agarbatthi)</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1070,6 +1109,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1559,13 +1599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A295"/>
+  <dimension ref="A1:A308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B276" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B300" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A295"/>
+      <selection pane="bottomRight" activeCell="A308" sqref="A308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3048,6 +3088,71 @@
         <v>294</v>
       </c>
     </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.39305555555555599" bottom="0.156944444444444" header="0.23611111111111099" footer="7.8472222222222193E-2"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/materials.xlsx
+++ b/data/materials.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Store\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707E09D0-E454-4BD9-B0D9-C6A666674AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20745" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -27,6 +21,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t>Item</t>
   </si>
@@ -958,13 +954,31 @@
   </si>
   <si>
     <t>Incense Stick (Agarbatthi)</t>
+  </si>
+  <si>
+    <t>Cold Pressed Juices</t>
+  </si>
+  <si>
+    <t>CP Celery Apple</t>
+  </si>
+  <si>
+    <t>Soya Beans</t>
+  </si>
+  <si>
+    <t>Pooja Items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,20 +1011,164 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1023,8 +1181,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1071,9 +1415,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1104,166 +1690,97 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -1274,7 +1791,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1302,40 +1819,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1593,27 +2224,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A308"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B300" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A308" sqref="A308"/>
+      <selection pane="bottomRight" activeCell="A311" sqref="A311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="15.75">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +2455,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" hidden="1">
+    <row r="43" hidden="1" spans="1:1">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -3153,8 +3785,29 @@
         <v>307</v>
       </c>
     </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.39305555555555599" bottom="0.156944444444444" header="0.23611111111111099" footer="7.8472222222222193E-2"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="0.393055555555556" bottom="0.156944444444444" header="0.236111111111111" footer="0.0784722222222222"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/materials.xlsx
+++ b/data/materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707E09D0-E454-4BD9-B0D9-C6A666674AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3135EF-B04E-4ABA-B714-5A5F957B60F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>Item</t>
   </si>
@@ -958,6 +958,24 @@
   </si>
   <si>
     <t>Incense Stick (Agarbatthi)</t>
+  </si>
+  <si>
+    <t>Coffee_brass_set</t>
+  </si>
+  <si>
+    <t>Ulavacharu</t>
+  </si>
+  <si>
+    <t>Milk_bread</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>silver_pouch</t>
   </si>
 </sst>
 </file>
@@ -1599,13 +1617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A308"/>
+  <dimension ref="A1:A314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B300" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B297" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A308" sqref="A308"/>
+      <selection pane="bottomRight" activeCell="A315" sqref="A315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3089,68 +3107,98 @@
       </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="14" t="s">
+      <c r="A296" s="13" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="14" t="s">
+      <c r="A297" s="13" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="14" t="s">
+      <c r="A298" s="13" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="14" t="s">
+      <c r="A299" s="13" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="14" t="s">
+      <c r="A300" s="13" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="14" t="s">
+      <c r="A301" s="13" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="14" t="s">
+      <c r="A302" s="13" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="14" t="s">
+      <c r="A303" s="13" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="14" t="s">
+      <c r="A304" s="13" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="14" t="s">
+      <c r="A305" s="13" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="14" t="s">
+      <c r="A306" s="13" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="14" t="s">
+      <c r="A307" s="13" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="14" t="s">
+      <c r="A308" s="13" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="14" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/data/materials.xlsx
+++ b/data/materials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3135EF-B04E-4ABA-B714-5A5F957B60F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4B1542-4FCC-40AE-9B91-9B2DD0621243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t>Item</t>
   </si>
@@ -976,6 +976,21 @@
   </si>
   <si>
     <t>silver_pouch</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Cold Pressed Juice</t>
+  </si>
+  <si>
+    <t>Pooja Items</t>
+  </si>
+  <si>
+    <t>Stationary</t>
+  </si>
+  <si>
+    <t>Printing Material</t>
   </si>
 </sst>
 </file>
@@ -1617,13 +1632,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A314"/>
+  <dimension ref="A1:A319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B297" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A315" sqref="A315"/>
+      <selection pane="bottomRight" activeCell="A319" sqref="A319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3172,33 +3187,58 @@
       </c>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="14" t="s">
+      <c r="A309" s="13" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="14" t="s">
+      <c r="A310" s="13" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="14" t="s">
+      <c r="A311" s="13" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="14" t="s">
+      <c r="A312" s="13" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="14" t="s">
+      <c r="A313" s="13" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="14" t="s">
+      <c r="A314" s="13" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="14" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
